--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H2">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I2">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J2">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N2">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P2">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q2">
-        <v>2360.728148554414</v>
+        <v>2474.155563921499</v>
       </c>
       <c r="R2">
-        <v>2360.728148554414</v>
+        <v>22267.40007529349</v>
       </c>
       <c r="S2">
-        <v>0.0434115652346742</v>
+        <v>0.04214298090913247</v>
       </c>
       <c r="T2">
-        <v>0.0434115652346742</v>
+        <v>0.04214298090913245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H3">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I3">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J3">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N3">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P3">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q3">
-        <v>9.966021084662376</v>
+        <v>10.98999488203289</v>
       </c>
       <c r="R3">
-        <v>9.966021084662376</v>
+        <v>98.909953938296</v>
       </c>
       <c r="S3">
-        <v>0.0001832657329527272</v>
+        <v>0.0001871956441457092</v>
       </c>
       <c r="T3">
-        <v>0.0001832657329527272</v>
+        <v>0.0001871956441457092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H4">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I4">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J4">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N4">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P4">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q4">
-        <v>1450.394340367424</v>
+        <v>1468.225640917708</v>
       </c>
       <c r="R4">
-        <v>1450.394340367424</v>
+        <v>13214.03076825938</v>
       </c>
       <c r="S4">
-        <v>0.02667138465791517</v>
+        <v>0.02500869632361442</v>
       </c>
       <c r="T4">
-        <v>0.02667138465791517</v>
+        <v>0.02500869632361442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H5">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I5">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J5">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N5">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P5">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q5">
-        <v>617.8336090366734</v>
+        <v>858.5871178052257</v>
       </c>
       <c r="R5">
-        <v>617.8336090366734</v>
+        <v>7727.284060247031</v>
       </c>
       <c r="S5">
-        <v>0.01136137764921962</v>
+        <v>0.01462455354146872</v>
       </c>
       <c r="T5">
-        <v>0.01136137764921962</v>
+        <v>0.01462455354146871</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.7306960927433</v>
+        <v>11.83171066666667</v>
       </c>
       <c r="H6">
-        <v>11.7306960927433</v>
+        <v>35.495132</v>
       </c>
       <c r="I6">
-        <v>0.08182647444388196</v>
+        <v>0.0821640352811125</v>
       </c>
       <c r="J6">
-        <v>0.08182647444388196</v>
+        <v>0.08216403528111249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N6">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P6">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q6">
-        <v>10.81519110452567</v>
+        <v>11.77746621716356</v>
       </c>
       <c r="R6">
-        <v>10.81519110452567</v>
+        <v>105.997195954472</v>
       </c>
       <c r="S6">
-        <v>0.0001988811691202497</v>
+        <v>0.0002006088627512123</v>
       </c>
       <c r="T6">
-        <v>0.0001988811691202497</v>
+        <v>0.0002006088627512122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J7">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N7">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P7">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q7">
-        <v>8600.295769123444</v>
+        <v>8964.363557593677</v>
       </c>
       <c r="R7">
-        <v>8600.295769123444</v>
+        <v>80679.27201834309</v>
       </c>
       <c r="S7">
-        <v>0.1581513318453954</v>
+        <v>0.1526925015464305</v>
       </c>
       <c r="T7">
-        <v>0.1581513318453954</v>
+        <v>0.1526925015464305</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J8">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N8">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P8">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q8">
-        <v>36.30690345345424</v>
+        <v>39.81896330822732</v>
       </c>
       <c r="R8">
-        <v>36.30690345345424</v>
+        <v>358.370669774046</v>
       </c>
       <c r="S8">
-        <v>0.0006676497286245313</v>
+        <v>0.0006782474938076743</v>
       </c>
       <c r="T8">
-        <v>0.0006676497286245313</v>
+        <v>0.0006782474938076743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J9">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N9">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P9">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q9">
-        <v>5283.886802748068</v>
+        <v>5319.676992705429</v>
       </c>
       <c r="R9">
-        <v>5283.886802748068</v>
+        <v>47877.09293434887</v>
       </c>
       <c r="S9">
-        <v>0.09716569727462825</v>
+        <v>0.09061154004035341</v>
       </c>
       <c r="T9">
-        <v>0.09716569727462825</v>
+        <v>0.09061154004035341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J10">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N10">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P10">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q10">
-        <v>2250.810529401325</v>
+        <v>3110.833927383864</v>
       </c>
       <c r="R10">
-        <v>2250.810529401325</v>
+        <v>27997.50534645478</v>
       </c>
       <c r="S10">
-        <v>0.04139028383587091</v>
+        <v>0.0529877008240454</v>
       </c>
       <c r="T10">
-        <v>0.04139028383587091</v>
+        <v>0.05298770082404539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.7357364451605</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
-        <v>42.7357364451605</v>
+        <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="J11">
-        <v>0.2980995005261128</v>
+        <v>0.2976968361890019</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N11">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P11">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q11">
-        <v>39.40048851261017</v>
+        <v>42.67213044219132</v>
       </c>
       <c r="R11">
-        <v>39.40048851261017</v>
+        <v>384.0491739797219</v>
       </c>
       <c r="S11">
-        <v>0.000724537841593743</v>
+        <v>0.0007268462843649782</v>
       </c>
       <c r="T11">
-        <v>0.000724537841593743</v>
+        <v>0.0007268462843649781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H12">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J12">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N12">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P12">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q12">
-        <v>8452.843918699689</v>
+        <v>8807.066957968853</v>
       </c>
       <c r="R12">
-        <v>8452.843918699689</v>
+        <v>79263.60262171966</v>
       </c>
       <c r="S12">
-        <v>0.1554398313163895</v>
+        <v>0.1500132247492376</v>
       </c>
       <c r="T12">
-        <v>0.1554398313163895</v>
+        <v>0.1500132247492376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H13">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J13">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N13">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P13">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q13">
-        <v>35.68442252476472</v>
+        <v>39.12026479062156</v>
       </c>
       <c r="R13">
-        <v>35.68442252476472</v>
+        <v>352.082383115594</v>
       </c>
       <c r="S13">
-        <v>0.0006562028911478431</v>
+        <v>0.0006663463673312014</v>
       </c>
       <c r="T13">
-        <v>0.0006562028911478431</v>
+        <v>0.0006663463673312013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H14">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J14">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N14">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P14">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q14">
-        <v>5193.294699009956</v>
+        <v>5226.333265994774</v>
       </c>
       <c r="R14">
-        <v>5193.294699009956</v>
+        <v>47036.99939395297</v>
       </c>
       <c r="S14">
-        <v>0.09549979388648015</v>
+        <v>0.08902159034191189</v>
       </c>
       <c r="T14">
-        <v>0.09549979388648015</v>
+        <v>0.08902159034191186</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H15">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J15">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N15">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P15">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q15">
-        <v>2212.2204405924</v>
+        <v>3056.248501923233</v>
       </c>
       <c r="R15">
-        <v>2212.2204405924</v>
+        <v>27506.2365173091</v>
       </c>
       <c r="S15">
-        <v>0.04068064848087826</v>
+        <v>0.05205793206712127</v>
       </c>
       <c r="T15">
-        <v>0.04068064848087826</v>
+        <v>0.05205793206712125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.0030333396831</v>
+        <v>42.11645766666667</v>
       </c>
       <c r="H16">
-        <v>42.0030333396831</v>
+        <v>126.349373</v>
       </c>
       <c r="I16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="J16">
-        <v>0.2929885922337747</v>
+        <v>0.2924731859264094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N16">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P16">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q16">
-        <v>38.7249681474104</v>
+        <v>41.92336774708422</v>
       </c>
       <c r="R16">
-        <v>38.7249681474104</v>
+        <v>377.3103097237581</v>
       </c>
       <c r="S16">
-        <v>0.0007121156588789826</v>
+        <v>0.000714092400807489</v>
       </c>
       <c r="T16">
-        <v>0.0007121156588789826</v>
+        <v>0.0007140924008074887</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H17">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J17">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N17">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P17">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q17">
-        <v>8075.655722156109</v>
+        <v>8402.571944105697</v>
       </c>
       <c r="R17">
-        <v>8075.655722156109</v>
+        <v>75623.14749695126</v>
       </c>
       <c r="S17">
-        <v>0.1485036959506857</v>
+        <v>0.1431233485039236</v>
       </c>
       <c r="T17">
-        <v>0.1485036959506857</v>
+        <v>0.1431233485039236</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H18">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J18">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N18">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P18">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q18">
-        <v>34.09208944654013</v>
+        <v>37.32353131234422</v>
       </c>
       <c r="R18">
-        <v>34.09208944654013</v>
+        <v>335.911781811098</v>
       </c>
       <c r="S18">
-        <v>0.0006269213869039066</v>
+        <v>0.0006357421055062794</v>
       </c>
       <c r="T18">
-        <v>0.0006269213869039066</v>
+        <v>0.0006357421055062794</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H19">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J19">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N19">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P19">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q19">
-        <v>4961.556188222426</v>
+        <v>4986.295832764043</v>
       </c>
       <c r="R19">
-        <v>4961.556188222426</v>
+        <v>44876.66249487639</v>
       </c>
       <c r="S19">
-        <v>0.09123834112894878</v>
+        <v>0.08493296587802153</v>
       </c>
       <c r="T19">
-        <v>0.09123834112894878</v>
+        <v>0.08493296587802153</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H20">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J20">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N20">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P20">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q20">
-        <v>2113.505328096598</v>
+        <v>2915.879717848518</v>
       </c>
       <c r="R20">
-        <v>2113.505328096598</v>
+        <v>26242.91746063667</v>
       </c>
       <c r="S20">
-        <v>0.03886537061909488</v>
+        <v>0.04966699146752421</v>
       </c>
       <c r="T20">
-        <v>0.03886537061909488</v>
+        <v>0.0496669914675242</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.1287471766905</v>
+        <v>40.18211366666667</v>
       </c>
       <c r="H21">
-        <v>40.1287471766905</v>
+        <v>120.546341</v>
       </c>
       <c r="I21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="J21">
-        <v>0.2799146682650591</v>
+        <v>0.2790403431922163</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N21">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O21">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P21">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q21">
-        <v>36.99695790172066</v>
+        <v>39.99789206954289</v>
       </c>
       <c r="R21">
-        <v>36.99695790172066</v>
+        <v>359.981028625886</v>
       </c>
       <c r="S21">
-        <v>0.0006803391794258607</v>
+        <v>0.0006812952372406963</v>
       </c>
       <c r="T21">
-        <v>0.0006803391794258607</v>
+        <v>0.0006812952372406961</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H22">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J22">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>201.243654246126</v>
+        <v>209.1122436666667</v>
       </c>
       <c r="N22">
-        <v>201.243654246126</v>
+        <v>627.336731</v>
       </c>
       <c r="O22">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994473</v>
       </c>
       <c r="P22">
-        <v>0.5305320256031147</v>
+        <v>0.5129127453994472</v>
       </c>
       <c r="Q22">
-        <v>1360.896364830423</v>
+        <v>1464.233066459951</v>
       </c>
       <c r="R22">
-        <v>1360.896364830423</v>
+        <v>13178.09759813956</v>
       </c>
       <c r="S22">
-        <v>0.02502560125596993</v>
+        <v>0.02494068969072312</v>
       </c>
       <c r="T22">
-        <v>0.02502560125596993</v>
+        <v>0.02494068969072312</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H23">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J23">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.849567749933223</v>
+        <v>0.9288593333333334</v>
       </c>
       <c r="N23">
-        <v>0.849567749933223</v>
+        <v>2.786578</v>
       </c>
       <c r="O23">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="P23">
-        <v>0.002239687511875072</v>
+        <v>0.00227831609663822</v>
       </c>
       <c r="Q23">
-        <v>5.745143452559534</v>
+        <v>6.504002473067112</v>
       </c>
       <c r="R23">
-        <v>5.745143452559534</v>
+        <v>58.536022257604</v>
       </c>
       <c r="S23">
-        <v>0.0001056477722460642</v>
+        <v>0.0001107844858473556</v>
       </c>
       <c r="T23">
-        <v>0.0001056477722460642</v>
+        <v>0.0001107844858473556</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H24">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J24">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>123.640944143515</v>
+        <v>124.0924226666667</v>
       </c>
       <c r="N24">
-        <v>123.640944143515</v>
+        <v>372.277268</v>
       </c>
       <c r="O24">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="P24">
-        <v>0.3259505537685957</v>
+        <v>0.3043752201075658</v>
       </c>
       <c r="Q24">
-        <v>836.1133773854143</v>
+        <v>868.9124337228915</v>
       </c>
       <c r="R24">
-        <v>836.1133773854143</v>
+        <v>7820.211903506024</v>
       </c>
       <c r="S24">
-        <v>0.01537533682062335</v>
+        <v>0.01480042752366459</v>
       </c>
       <c r="T24">
-        <v>0.01537533682062335</v>
+        <v>0.01480042752366459</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H25">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J25">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>52.6681114361892</v>
+        <v>72.56660866666667</v>
       </c>
       <c r="N25">
-        <v>52.6681114361892</v>
+        <v>217.699826</v>
       </c>
       <c r="O25">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="P25">
-        <v>0.1388472096156539</v>
+        <v>0.1779921530318332</v>
       </c>
       <c r="Q25">
-        <v>356.1644796428323</v>
+        <v>508.1215048314742</v>
       </c>
       <c r="R25">
-        <v>356.1644796428323</v>
+        <v>4573.093543483268</v>
       </c>
       <c r="S25">
-        <v>0.006549529030590208</v>
+        <v>0.00865497513167361</v>
       </c>
       <c r="T25">
-        <v>0.006549529030590208</v>
+        <v>0.00865497513167361</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.76243119281671</v>
+        <v>7.002139333333333</v>
       </c>
       <c r="H26">
-        <v>6.76243119281671</v>
+        <v>21.006418</v>
       </c>
       <c r="I26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="J26">
-        <v>0.04717076453117141</v>
+        <v>0.04862559941126002</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.921956465244721</v>
+        <v>0.9954153333333333</v>
       </c>
       <c r="N26">
-        <v>0.921956465244721</v>
+        <v>2.986246</v>
       </c>
       <c r="O26">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="P26">
-        <v>0.002430523500760697</v>
+        <v>0.002441565364515724</v>
       </c>
       <c r="Q26">
-        <v>6.234667158989936</v>
+        <v>6.970036858536444</v>
       </c>
       <c r="R26">
-        <v>6.234667158989936</v>
+        <v>62.730331726828</v>
       </c>
       <c r="S26">
-        <v>0.0001146496517418613</v>
+        <v>0.0001187225793513487</v>
       </c>
       <c r="T26">
-        <v>0.0001146496517418613</v>
+        <v>0.0001187225793513486</v>
       </c>
     </row>
   </sheetData>
